--- a/data/pca/factorExposure/factorExposure_2018-07-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02410529556054054</v>
+        <v>-0.02092241122313311</v>
       </c>
       <c r="C2">
-        <v>-0.02069964233288385</v>
+        <v>-0.01909827148053776</v>
       </c>
       <c r="D2">
-        <v>-0.02773235906176414</v>
+        <v>-0.02036602411070213</v>
       </c>
       <c r="E2">
-        <v>0.006642191101639685</v>
+        <v>-0.01561310991858014</v>
       </c>
       <c r="F2">
-        <v>-0.1132366114025948</v>
+        <v>0.002989380269508563</v>
       </c>
       <c r="G2">
-        <v>-0.04606645349996101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.05188185989086372</v>
+      </c>
+      <c r="H2">
+        <v>0.04899974326505236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.106146155106465</v>
+        <v>-0.08052890794674607</v>
       </c>
       <c r="C3">
-        <v>0.04207056726011763</v>
+        <v>0.01200877064523233</v>
       </c>
       <c r="D3">
-        <v>-0.08178147485706468</v>
+        <v>-0.02487193443674482</v>
       </c>
       <c r="E3">
-        <v>0.01055374995840123</v>
+        <v>-0.01261870620689968</v>
       </c>
       <c r="F3">
-        <v>-0.3952059245390699</v>
+        <v>-0.04607763796795249</v>
       </c>
       <c r="G3">
-        <v>-0.1660337456367371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1785332008447301</v>
+      </c>
+      <c r="H3">
+        <v>0.1557100356863378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04646401693222983</v>
+        <v>-0.04347351463350688</v>
       </c>
       <c r="C4">
-        <v>-0.02349326197847671</v>
+        <v>-0.005230541613090611</v>
       </c>
       <c r="D4">
-        <v>0.01479014154471592</v>
+        <v>-0.04853680890780088</v>
       </c>
       <c r="E4">
-        <v>-0.05023444274012068</v>
+        <v>0.02350419455166642</v>
       </c>
       <c r="F4">
-        <v>-0.08457329536903255</v>
+        <v>0.04814989229645705</v>
       </c>
       <c r="G4">
-        <v>-0.05710559460913985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0434885339734607</v>
+      </c>
+      <c r="H4">
+        <v>0.05652207469709877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01528494639635607</v>
+        <v>-0.02510188448085555</v>
       </c>
       <c r="C6">
-        <v>-0.01121136923429297</v>
+        <v>-0.004363104566240714</v>
       </c>
       <c r="D6">
-        <v>-0.01653727873522853</v>
+        <v>-0.05165105498543853</v>
       </c>
       <c r="E6">
-        <v>-0.02231770356476322</v>
+        <v>0.008494050716610612</v>
       </c>
       <c r="F6">
-        <v>-0.01539535963131671</v>
+        <v>0.0293631125064916</v>
       </c>
       <c r="G6">
-        <v>-0.002556305495551863</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01420094205336236</v>
+      </c>
+      <c r="H6">
+        <v>0.06290151854885075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0215591074999639</v>
+        <v>-0.02097940414947779</v>
       </c>
       <c r="C7">
-        <v>-0.0008282982034986853</v>
+        <v>-0.003470485372105969</v>
       </c>
       <c r="D7">
-        <v>-0.01545090214689147</v>
+        <v>-0.02561048467372027</v>
       </c>
       <c r="E7">
-        <v>-0.02786024904071925</v>
+        <v>0.04182978393947253</v>
       </c>
       <c r="F7">
-        <v>-0.05749669442567803</v>
+        <v>0.0006792430895301949</v>
       </c>
       <c r="G7">
-        <v>-0.06740498674289121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02359533013381946</v>
+      </c>
+      <c r="H7">
+        <v>0.03725664031294311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.02014157278270955</v>
+        <v>-0.005475712123223077</v>
       </c>
       <c r="C8">
-        <v>-0.01439852193870774</v>
+        <v>0.001416847068467314</v>
       </c>
       <c r="D8">
-        <v>-0.006570623247728135</v>
+        <v>-0.01271417218362255</v>
       </c>
       <c r="E8">
-        <v>-0.0431390204175378</v>
+        <v>0.007375881408878971</v>
       </c>
       <c r="F8">
-        <v>-0.1021635949256476</v>
+        <v>0.01586295980709675</v>
       </c>
       <c r="G8">
-        <v>-0.05311721497597938</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04649505459372941</v>
+      </c>
+      <c r="H8">
+        <v>0.04296246814159162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03617088223741612</v>
+        <v>-0.03490562013357016</v>
       </c>
       <c r="C9">
-        <v>-0.01973131239621763</v>
+        <v>-0.001236636343882999</v>
       </c>
       <c r="D9">
-        <v>0.004845311064566855</v>
+        <v>-0.03535415327127569</v>
       </c>
       <c r="E9">
-        <v>-0.04368230142775708</v>
+        <v>0.01228930062864974</v>
       </c>
       <c r="F9">
-        <v>-0.08546717576908726</v>
+        <v>0.02313418930892959</v>
       </c>
       <c r="G9">
-        <v>-0.05808234178083464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04999615846480788</v>
+      </c>
+      <c r="H9">
+        <v>0.05302348863683509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02697349431813511</v>
+        <v>-0.104059487628562</v>
       </c>
       <c r="C10">
-        <v>0.04341633946381505</v>
+        <v>0.03013044211194156</v>
       </c>
       <c r="D10">
-        <v>0.08091840421399223</v>
+        <v>0.1516783930258073</v>
       </c>
       <c r="E10">
-        <v>0.1060515969777231</v>
+        <v>-0.009717829052118845</v>
       </c>
       <c r="F10">
-        <v>-0.04726639392131513</v>
+        <v>-0.04294164045038833</v>
       </c>
       <c r="G10">
-        <v>0.02564708424855552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02364882815734198</v>
+      </c>
+      <c r="H10">
+        <v>0.005518444217936845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03618442887391878</v>
+        <v>-0.02015301593289801</v>
       </c>
       <c r="C11">
-        <v>-0.01497550452324663</v>
+        <v>0.007766386384856784</v>
       </c>
       <c r="D11">
-        <v>-0.01643407729893286</v>
+        <v>-0.03950770555611224</v>
       </c>
       <c r="E11">
-        <v>-0.03021423383548086</v>
+        <v>-0.0007629148450008728</v>
       </c>
       <c r="F11">
-        <v>-0.04532958638375437</v>
+        <v>0.008832209380584715</v>
       </c>
       <c r="G11">
-        <v>-0.02817735787444521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02630013216082677</v>
+      </c>
+      <c r="H11">
+        <v>0.04437378942328062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04381926872817529</v>
+        <v>-0.02930765837533509</v>
       </c>
       <c r="C12">
-        <v>-0.01607271235683453</v>
+        <v>0.006250557482750709</v>
       </c>
       <c r="D12">
-        <v>-0.009686861129256182</v>
+        <v>-0.04081982029707559</v>
       </c>
       <c r="E12">
-        <v>-0.0389123621937971</v>
+        <v>0.009114086073907225</v>
       </c>
       <c r="F12">
-        <v>-0.03309903977183705</v>
+        <v>0.01596416256027802</v>
       </c>
       <c r="G12">
-        <v>-0.01834499216118189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01149660788191413</v>
+      </c>
+      <c r="H12">
+        <v>0.02439723460024252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0156343063791843</v>
+        <v>-0.02485912008309698</v>
       </c>
       <c r="C13">
-        <v>-0.0202272847751745</v>
+        <v>-0.01478420319337358</v>
       </c>
       <c r="D13">
-        <v>-0.01407486754807264</v>
+        <v>0.001768958259449063</v>
       </c>
       <c r="E13">
-        <v>0.002873127033495554</v>
+        <v>-0.01243970733689943</v>
       </c>
       <c r="F13">
-        <v>-0.07814160731689829</v>
+        <v>0.007672949763244843</v>
       </c>
       <c r="G13">
-        <v>-0.04171826957815073</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05659810179667192</v>
+      </c>
+      <c r="H13">
+        <v>0.05620048291605509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01463491481462517</v>
+        <v>-0.01662365155885276</v>
       </c>
       <c r="C14">
-        <v>-0.01009359145432452</v>
+        <v>-0.0007987562331580044</v>
       </c>
       <c r="D14">
-        <v>0.004443076268431299</v>
+        <v>-0.00531056341623161</v>
       </c>
       <c r="E14">
-        <v>-0.03924838271296138</v>
+        <v>0.01364112731492109</v>
       </c>
       <c r="F14">
-        <v>-0.05288383272213491</v>
+        <v>0.01229257900783353</v>
       </c>
       <c r="G14">
-        <v>-0.06702243705937973</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04339709342380989</v>
+      </c>
+      <c r="H14">
+        <v>0.002496419482385541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02743007052940056</v>
+        <v>-0.02166852866878687</v>
       </c>
       <c r="C16">
-        <v>-0.01876995154390481</v>
+        <v>0.008402770279996403</v>
       </c>
       <c r="D16">
-        <v>-0.01697835281081299</v>
+        <v>-0.03530450335051847</v>
       </c>
       <c r="E16">
-        <v>-0.02374029431186273</v>
+        <v>0.002976929999772397</v>
       </c>
       <c r="F16">
-        <v>-0.05192528471604984</v>
+        <v>0.01515351585794994</v>
       </c>
       <c r="G16">
-        <v>-0.03054760579382761</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02391187418270803</v>
+      </c>
+      <c r="H16">
+        <v>0.03774639795706312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04773889500114353</v>
+        <v>-0.03427001671705095</v>
       </c>
       <c r="C19">
-        <v>-0.01755857430350444</v>
+        <v>-0.0004141260312028866</v>
       </c>
       <c r="D19">
-        <v>-0.01543222708397205</v>
+        <v>-0.02287672286104045</v>
       </c>
       <c r="E19">
-        <v>-0.03824158051067796</v>
+        <v>0.006013970204111044</v>
       </c>
       <c r="F19">
-        <v>-0.100472290494378</v>
+        <v>0.01722407005737239</v>
       </c>
       <c r="G19">
-        <v>-0.03462298327331692</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05849640114898407</v>
+      </c>
+      <c r="H19">
+        <v>0.07319413624570867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0005139137085112779</v>
+        <v>-0.009042628108360965</v>
       </c>
       <c r="C20">
-        <v>-0.01191088793073822</v>
+        <v>-0.006843125217892198</v>
       </c>
       <c r="D20">
-        <v>0.002302176233104147</v>
+        <v>-0.008253021953605043</v>
       </c>
       <c r="E20">
-        <v>-0.03126161585862808</v>
+        <v>0.004239290964595176</v>
       </c>
       <c r="F20">
-        <v>-0.0741802793642598</v>
+        <v>0.01013000391072361</v>
       </c>
       <c r="G20">
-        <v>-0.07402769615825974</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04962084622255397</v>
+      </c>
+      <c r="H20">
+        <v>0.01351662789501483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005694502233944494</v>
+        <v>-0.01402264103354147</v>
       </c>
       <c r="C21">
-        <v>0.01537978796983867</v>
+        <v>-0.008718348411597404</v>
       </c>
       <c r="D21">
-        <v>-0.01587111679198463</v>
+        <v>-0.008993575522564363</v>
       </c>
       <c r="E21">
-        <v>-0.0291063700720457</v>
+        <v>0.01606739536948892</v>
       </c>
       <c r="F21">
-        <v>-0.04949535136663774</v>
+        <v>-0.0006739735928987357</v>
       </c>
       <c r="G21">
-        <v>-0.02147081181040863</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05030976235186979</v>
+      </c>
+      <c r="H21">
+        <v>0.03280628576680759</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03182057252272255</v>
+        <v>-0.01925827560429897</v>
       </c>
       <c r="C24">
-        <v>-0.02064791763793002</v>
+        <v>0.0026864392446398</v>
       </c>
       <c r="D24">
-        <v>-0.008464251752484204</v>
+        <v>-0.03514267329657075</v>
       </c>
       <c r="E24">
-        <v>-0.008839828582236737</v>
+        <v>0.0002013711002957137</v>
       </c>
       <c r="F24">
-        <v>-0.04481037270227524</v>
+        <v>0.009675509540651175</v>
       </c>
       <c r="G24">
-        <v>-0.02419534210289176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02064508622628595</v>
+      </c>
+      <c r="H24">
+        <v>0.04126961687336179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03119381652621606</v>
+        <v>-0.02895946004633072</v>
       </c>
       <c r="C25">
-        <v>-0.01154236695586911</v>
+        <v>0.0006294188040163822</v>
       </c>
       <c r="D25">
-        <v>-0.01686320316025079</v>
+        <v>-0.03479290914639518</v>
       </c>
       <c r="E25">
-        <v>-0.03583021697776366</v>
+        <v>0.004463076375679297</v>
       </c>
       <c r="F25">
-        <v>-0.04482338560830234</v>
+        <v>0.01532922937047275</v>
       </c>
       <c r="G25">
-        <v>-0.009704398664704916</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02441546410239169</v>
+      </c>
+      <c r="H25">
+        <v>0.04448647835937034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02103999614080296</v>
+        <v>-0.0202141890868316</v>
       </c>
       <c r="C26">
-        <v>-0.003581455606430145</v>
+        <v>-0.0172678016471093</v>
       </c>
       <c r="D26">
-        <v>-0.03058413660717024</v>
+        <v>-0.002848367693446016</v>
       </c>
       <c r="E26">
-        <v>-0.01663281717039088</v>
+        <v>-0.001030611731115945</v>
       </c>
       <c r="F26">
-        <v>-0.06387239325667685</v>
+        <v>-0.001090782882602407</v>
       </c>
       <c r="G26">
-        <v>-0.03636386861928799</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03218535271457438</v>
+      </c>
+      <c r="H26">
+        <v>0.02141790923284623</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.0630438152152723</v>
+        <v>-0.02445562478440569</v>
       </c>
       <c r="C27">
-        <v>-0.03002273079441327</v>
+        <v>0.009371076312115638</v>
       </c>
       <c r="D27">
-        <v>0.02748266665984928</v>
+        <v>-0.01574973822576863</v>
       </c>
       <c r="E27">
-        <v>-0.03600686452124956</v>
+        <v>0.007642336435710538</v>
       </c>
       <c r="F27">
-        <v>-0.0571544964204417</v>
+        <v>0.01672956253902511</v>
       </c>
       <c r="G27">
-        <v>-0.04257951631718552</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01947578296328265</v>
+      </c>
+      <c r="H27">
+        <v>0.004887534391123316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04243966358031907</v>
+        <v>-0.1546956884872001</v>
       </c>
       <c r="C28">
-        <v>0.04834765283657834</v>
+        <v>0.03142014406184541</v>
       </c>
       <c r="D28">
-        <v>0.1136972929171284</v>
+        <v>0.2202522016455312</v>
       </c>
       <c r="E28">
-        <v>0.1484479217429922</v>
+        <v>-0.007606527160296596</v>
       </c>
       <c r="F28">
-        <v>-0.04480892898213416</v>
+        <v>-0.04793577162468028</v>
       </c>
       <c r="G28">
-        <v>0.009054379761988524</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.009288995480874763</v>
+      </c>
+      <c r="H28">
+        <v>-0.01329322886305871</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02201817963892133</v>
+        <v>-0.02159744683770419</v>
       </c>
       <c r="C29">
-        <v>-0.0116432530502586</v>
+        <v>0.001356557749437056</v>
       </c>
       <c r="D29">
-        <v>0.007004466757016654</v>
+        <v>-0.006707774091894847</v>
       </c>
       <c r="E29">
-        <v>-0.05357875155764716</v>
+        <v>0.01369880322901577</v>
       </c>
       <c r="F29">
-        <v>-0.04461934716425954</v>
+        <v>0.01525055757088447</v>
       </c>
       <c r="G29">
-        <v>-0.05749285021104324</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.04120501187594214</v>
+      </c>
+      <c r="H29">
+        <v>-0.001180737056045422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09068499165813938</v>
+        <v>-0.04945701441140007</v>
       </c>
       <c r="C30">
-        <v>-0.06049723854881042</v>
+        <v>-0.005771690457745483</v>
       </c>
       <c r="D30">
-        <v>-0.01538187322193779</v>
+        <v>-0.06996271414615174</v>
       </c>
       <c r="E30">
-        <v>-0.06747744285295243</v>
+        <v>-0.02870714295491072</v>
       </c>
       <c r="F30">
-        <v>-0.08774633484078186</v>
+        <v>0.04887954297345774</v>
       </c>
       <c r="G30">
-        <v>-0.06643346244650013</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.0564594467033712</v>
+      </c>
+      <c r="H30">
+        <v>0.06262343178269111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06362560242814311</v>
+        <v>-0.05453808430221785</v>
       </c>
       <c r="C31">
-        <v>-0.02742817887832586</v>
+        <v>0.01452866686954514</v>
       </c>
       <c r="D31">
-        <v>-0.02589478613652263</v>
+        <v>-0.02738909020093275</v>
       </c>
       <c r="E31">
-        <v>-0.004336130511641629</v>
+        <v>-0.004629978221028175</v>
       </c>
       <c r="F31">
-        <v>-0.04334896068894114</v>
+        <v>0.01270936208627173</v>
       </c>
       <c r="G31">
-        <v>-0.06427976543794667</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01784752634430824</v>
+      </c>
+      <c r="H31">
+        <v>0.01179351977824209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02097390505235669</v>
+        <v>-0.01097142424028655</v>
       </c>
       <c r="C32">
-        <v>-0.01866760275092876</v>
+        <v>0.01338000961068152</v>
       </c>
       <c r="D32">
-        <v>-0.009935031481815874</v>
+        <v>-0.003393702344605779</v>
       </c>
       <c r="E32">
-        <v>-0.08048804013183337</v>
+        <v>0.03161882564316778</v>
       </c>
       <c r="F32">
-        <v>-0.06444900606440501</v>
+        <v>0.03314704396259188</v>
       </c>
       <c r="G32">
-        <v>-0.04752623592946099</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.03493312315734771</v>
+      </c>
+      <c r="H32">
+        <v>0.05982520967517732</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05028117289223911</v>
+        <v>-0.03785964871602716</v>
       </c>
       <c r="C33">
-        <v>-0.01140577191015489</v>
+        <v>0.0007193714683568692</v>
       </c>
       <c r="D33">
-        <v>-0.04711422719641333</v>
+        <v>-0.03435708093723405</v>
       </c>
       <c r="E33">
-        <v>-0.0384877758061299</v>
+        <v>-0.02330902960887402</v>
       </c>
       <c r="F33">
-        <v>-0.08811154565119531</v>
+        <v>0.001311424039467323</v>
       </c>
       <c r="G33">
-        <v>-0.06295578287462361</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.04762391864058108</v>
+      </c>
+      <c r="H33">
+        <v>0.04164211685046985</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03432134628286594</v>
+        <v>-0.0260096540035622</v>
       </c>
       <c r="C34">
-        <v>-0.02162633530308487</v>
+        <v>0.01684111915050298</v>
       </c>
       <c r="D34">
-        <v>-0.01194679103457274</v>
+        <v>-0.03634493617978186</v>
       </c>
       <c r="E34">
-        <v>-0.03221238724521589</v>
+        <v>0.009334435796747803</v>
       </c>
       <c r="F34">
-        <v>-0.05941578951581327</v>
+        <v>0.01694197386826625</v>
       </c>
       <c r="G34">
-        <v>-0.01563642726541563</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0221550966614033</v>
+      </c>
+      <c r="H34">
+        <v>0.03824815309721494</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01569342042737084</v>
+        <v>-0.02103429147582008</v>
       </c>
       <c r="C36">
-        <v>-0.004311146055034657</v>
+        <v>-0.003884782363379587</v>
       </c>
       <c r="D36">
-        <v>0.001938596013255053</v>
+        <v>-0.0003425190892131613</v>
       </c>
       <c r="E36">
-        <v>-0.02816864780016488</v>
+        <v>0.006681832873518906</v>
       </c>
       <c r="F36">
-        <v>-0.03279149691635479</v>
+        <v>0.003294398961801317</v>
       </c>
       <c r="G36">
-        <v>-0.03700015082277978</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01933925205553672</v>
+      </c>
+      <c r="H36">
+        <v>0.008370163184827866</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.001043722945280128</v>
+        <v>-0.02265549832025387</v>
       </c>
       <c r="C38">
-        <v>0.01265645804964651</v>
+        <v>0.01602218036128819</v>
       </c>
       <c r="D38">
-        <v>-0.01333615301016015</v>
+        <v>-0.00845784552290473</v>
       </c>
       <c r="E38">
-        <v>0.01661213778148575</v>
+        <v>-0.0007491850495674187</v>
       </c>
       <c r="F38">
-        <v>-0.04665613937119741</v>
+        <v>0.00762612863462064</v>
       </c>
       <c r="G38">
-        <v>-0.002904419065149186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.021469013260182</v>
+      </c>
+      <c r="H38">
+        <v>0.04078791276612399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04184453713010161</v>
+        <v>-0.01692733260986501</v>
       </c>
       <c r="C39">
-        <v>-0.03870006580649503</v>
+        <v>0.00018316961888216</v>
       </c>
       <c r="D39">
-        <v>-0.02529507791170666</v>
+        <v>-0.07610030617333857</v>
       </c>
       <c r="E39">
-        <v>-0.03552722708386294</v>
+        <v>-0.001618033843920477</v>
       </c>
       <c r="F39">
-        <v>-0.06703126162471369</v>
+        <v>0.01998684278301834</v>
       </c>
       <c r="G39">
-        <v>-0.02995887449796377</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04293726947113257</v>
+      </c>
+      <c r="H39">
+        <v>0.07038623112595405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03717930362543285</v>
+        <v>-0.03012221752497552</v>
       </c>
       <c r="C40">
-        <v>-0.06268036028348814</v>
+        <v>0.0002549035005438832</v>
       </c>
       <c r="D40">
-        <v>-0.03548013914770862</v>
+        <v>-0.02075525062211549</v>
       </c>
       <c r="E40">
-        <v>0.01053357183699737</v>
+        <v>-0.02411946435505911</v>
       </c>
       <c r="F40">
-        <v>-0.07834224671975096</v>
+        <v>0.0266338780693978</v>
       </c>
       <c r="G40">
-        <v>-0.05215962886461979</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02780893688594624</v>
+      </c>
+      <c r="H40">
+        <v>0.06436503803912096</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0004558080325364866</v>
+        <v>-0.01183428858154895</v>
       </c>
       <c r="C41">
-        <v>0.001694608925657447</v>
+        <v>-0.0002295606280624719</v>
       </c>
       <c r="D41">
-        <v>-0.007181279331351615</v>
+        <v>0.01239417094351929</v>
       </c>
       <c r="E41">
-        <v>-0.009433683707053936</v>
+        <v>-0.00199025257204589</v>
       </c>
       <c r="F41">
-        <v>-0.003615989053687236</v>
+        <v>-0.001618882706448517</v>
       </c>
       <c r="G41">
-        <v>-0.04814120172696871</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.003337775718739459</v>
+      </c>
+      <c r="H41">
+        <v>-0.005639906639034627</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3721957394387252</v>
+        <v>-0.1956804315084948</v>
       </c>
       <c r="C42">
-        <v>0.6510787626744637</v>
+        <v>-0.07719115063188134</v>
       </c>
       <c r="D42">
-        <v>-0.5471753578771306</v>
+        <v>-0.3554779314814407</v>
       </c>
       <c r="E42">
-        <v>0.1592855527859808</v>
+        <v>-0.2323965243833403</v>
       </c>
       <c r="F42">
-        <v>0.2621255892484911</v>
+        <v>-0.8443828844067469</v>
       </c>
       <c r="G42">
-        <v>-0.08108820832383476</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.2014157725583786</v>
+      </c>
+      <c r="H42">
+        <v>-0.05267943685324859</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.007227918868802936</v>
+        <v>-0.01196807683347925</v>
       </c>
       <c r="C43">
-        <v>0.007142426142312106</v>
+        <v>-0.001485776531399258</v>
       </c>
       <c r="D43">
-        <v>-0.01665639736964088</v>
+        <v>0.01288295338267901</v>
       </c>
       <c r="E43">
-        <v>-0.010205344223373</v>
+        <v>-0.006194396859319673</v>
       </c>
       <c r="F43">
-        <v>-0.01911667851721496</v>
+        <v>-0.008492425164786023</v>
       </c>
       <c r="G43">
-        <v>-0.04578458456449452</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.005797687402286957</v>
+      </c>
+      <c r="H43">
+        <v>0.002398861105877697</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01700629445736511</v>
+        <v>-0.01269485007883964</v>
       </c>
       <c r="C44">
-        <v>0.006459215902309326</v>
+        <v>0.0007536385027939166</v>
       </c>
       <c r="D44">
-        <v>-0.02072856496574161</v>
+        <v>-0.02439439366118243</v>
       </c>
       <c r="E44">
-        <v>-0.0201825417487213</v>
+        <v>0.005020037570268036</v>
       </c>
       <c r="F44">
-        <v>-0.112897593903047</v>
+        <v>-0.007320033750053016</v>
       </c>
       <c r="G44">
-        <v>-0.07765020342329419</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03889933937931302</v>
+      </c>
+      <c r="H44">
+        <v>0.05808308253966692</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02006553650381679</v>
+        <v>-0.01808707956897854</v>
       </c>
       <c r="C46">
-        <v>-0.01271395279166775</v>
+        <v>-0.003867447209358741</v>
       </c>
       <c r="D46">
-        <v>-0.02305127167946424</v>
+        <v>-0.01458767931356907</v>
       </c>
       <c r="E46">
-        <v>-0.04775375675827396</v>
+        <v>0.001246292279831825</v>
       </c>
       <c r="F46">
-        <v>-0.05804800039132344</v>
+        <v>0.01442020558384679</v>
       </c>
       <c r="G46">
-        <v>-0.06648649842108859</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.0484547874645606</v>
+      </c>
+      <c r="H46">
+        <v>0.0113032819627765</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09683015181696311</v>
+        <v>-0.07434585528340451</v>
       </c>
       <c r="C47">
-        <v>-0.03339385216943947</v>
+        <v>0.0295595460107677</v>
       </c>
       <c r="D47">
-        <v>-0.007395811421684917</v>
+        <v>-0.04665347465561889</v>
       </c>
       <c r="E47">
-        <v>-0.02214769631262113</v>
+        <v>0.000415429184786136</v>
       </c>
       <c r="F47">
-        <v>-0.02093795740693668</v>
+        <v>0.02363138974866949</v>
       </c>
       <c r="G47">
-        <v>-0.0870079886244443</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.006948278483114198</v>
+      </c>
+      <c r="H47">
+        <v>-0.02059828552765474</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01786228968870718</v>
+        <v>-0.02218515809634602</v>
       </c>
       <c r="C48">
-        <v>-0.006125872754790759</v>
+        <v>0.006592509544315762</v>
       </c>
       <c r="D48">
-        <v>-0.01447110263187469</v>
+        <v>-0.007997546939648527</v>
       </c>
       <c r="E48">
-        <v>-0.02651904980712571</v>
+        <v>0.001738633105563328</v>
       </c>
       <c r="F48">
-        <v>-0.05055490916439114</v>
+        <v>0.007982938134280394</v>
       </c>
       <c r="G48">
-        <v>-0.02389183630614582</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02595270086937052</v>
+      </c>
+      <c r="H48">
+        <v>0.01843911014879385</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09117527138858676</v>
+        <v>-0.07308191113676862</v>
       </c>
       <c r="C50">
-        <v>-0.03042433744083882</v>
+        <v>0.026794680625414</v>
       </c>
       <c r="D50">
-        <v>-0.01973118131898154</v>
+        <v>-0.04465199857726928</v>
       </c>
       <c r="E50">
-        <v>-0.03295676563189791</v>
+        <v>0.01900504475927218</v>
       </c>
       <c r="F50">
-        <v>-0.05543017514217531</v>
+        <v>0.01694016474971734</v>
       </c>
       <c r="G50">
-        <v>-0.03897860077306409</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01557956562367595</v>
+      </c>
+      <c r="H50">
+        <v>-0.0006007174969278078</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01658378815749274</v>
+        <v>-0.01826809713769606</v>
       </c>
       <c r="C51">
-        <v>0.01101351581243464</v>
+        <v>-0.00155512229853134</v>
       </c>
       <c r="D51">
-        <v>-0.01410470833723953</v>
+        <v>0.004196409424388039</v>
       </c>
       <c r="E51">
-        <v>0.005775157357501907</v>
+        <v>4.26833714280784e-05</v>
       </c>
       <c r="F51">
-        <v>-0.114161592825162</v>
+        <v>-0.01244424945824878</v>
       </c>
       <c r="G51">
-        <v>-0.05492828528143977</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0495112003466086</v>
+      </c>
+      <c r="H51">
+        <v>0.04952301552983778</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1057266135389524</v>
+        <v>-0.09220850081516908</v>
       </c>
       <c r="C53">
-        <v>-0.05275796986014317</v>
+        <v>0.03654986322265551</v>
       </c>
       <c r="D53">
-        <v>-0.01286081639299916</v>
+        <v>-0.08220135931164581</v>
       </c>
       <c r="E53">
-        <v>-0.04199098287362839</v>
+        <v>0.007651660215308831</v>
       </c>
       <c r="F53">
-        <v>0.04502117530112175</v>
+        <v>0.05141617389412436</v>
       </c>
       <c r="G53">
-        <v>-0.02603952240695804</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.04111096178319505</v>
+      </c>
+      <c r="H53">
+        <v>-0.04216216932252335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02126809316237085</v>
+        <v>-0.0261846731529402</v>
       </c>
       <c r="C54">
-        <v>-0.01316670550136229</v>
+        <v>0.01141300926840135</v>
       </c>
       <c r="D54">
-        <v>0.008888680634979725</v>
+        <v>0.01150360748434743</v>
       </c>
       <c r="E54">
-        <v>-0.03640450970628423</v>
+        <v>0.007535922381436453</v>
       </c>
       <c r="F54">
-        <v>-0.05057957527831704</v>
+        <v>0.005358283597945222</v>
       </c>
       <c r="G54">
-        <v>-0.06664627680727649</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.0405525975209121</v>
+      </c>
+      <c r="H54">
+        <v>-0.002856238121812372</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1046296946733805</v>
+        <v>-0.07621329832944303</v>
       </c>
       <c r="C55">
-        <v>-0.03073628426358812</v>
+        <v>0.03147814764927886</v>
       </c>
       <c r="D55">
-        <v>0.008264105055872944</v>
+        <v>-0.0786572735871723</v>
       </c>
       <c r="E55">
-        <v>-0.06443146922894998</v>
+        <v>0.01500355318169986</v>
       </c>
       <c r="F55">
-        <v>0.03330449359691583</v>
+        <v>0.04105061170033378</v>
       </c>
       <c r="G55">
-        <v>-0.07451744896631635</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01837373519248819</v>
+      </c>
+      <c r="H55">
+        <v>-0.0510689540441259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1438891095760021</v>
+        <v>-0.1247001669996788</v>
       </c>
       <c r="C56">
-        <v>-0.09134605741229072</v>
+        <v>0.05551391101043603</v>
       </c>
       <c r="D56">
-        <v>0.02414369894171001</v>
+        <v>-0.1043969827085345</v>
       </c>
       <c r="E56">
-        <v>-0.05581835398418556</v>
+        <v>0.01187043675908579</v>
       </c>
       <c r="F56">
-        <v>0.1008055092029915</v>
+        <v>0.08235294964413577</v>
       </c>
       <c r="G56">
-        <v>0.02988926530268778</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07460430574444893</v>
+      </c>
+      <c r="H56">
+        <v>-0.05051770950177468</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04983770016765614</v>
+        <v>-0.0391526002601589</v>
       </c>
       <c r="C57">
-        <v>-0.0018306852814721</v>
+        <v>-0.01007552079623431</v>
       </c>
       <c r="D57">
-        <v>-0.01225030947284591</v>
+        <v>-0.03087152691318913</v>
       </c>
       <c r="E57">
-        <v>0.0146953983158468</v>
+        <v>-0.003894826850335447</v>
       </c>
       <c r="F57">
-        <v>-0.08524187741611665</v>
+        <v>0.01467845299597121</v>
       </c>
       <c r="G57">
-        <v>-0.05880885709658319</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.05676847878377468</v>
+      </c>
+      <c r="H57">
+        <v>0.04258958979041851</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2086425791854881</v>
+        <v>-0.1450481586568939</v>
       </c>
       <c r="C58">
-        <v>-0.06877840247306768</v>
+        <v>0.04145776308351833</v>
       </c>
       <c r="D58">
-        <v>-0.130079915100337</v>
+        <v>-0.1578066132908051</v>
       </c>
       <c r="E58">
-        <v>-0.1261898212269052</v>
+        <v>-0.1668344885681154</v>
       </c>
       <c r="F58">
-        <v>-0.3455888885736105</v>
+        <v>-0.03757124993162982</v>
       </c>
       <c r="G58">
-        <v>-0.1128575911729573</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8301562352142673</v>
+      </c>
+      <c r="H58">
+        <v>-0.3680872421654852</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.04514402220148209</v>
+        <v>-0.1598833996687723</v>
       </c>
       <c r="C59">
-        <v>0.004207340212288474</v>
+        <v>0.03893490763715616</v>
       </c>
       <c r="D59">
-        <v>0.0993148872406488</v>
+        <v>0.2184284348699595</v>
       </c>
       <c r="E59">
-        <v>0.140047429462483</v>
+        <v>-0.02536824971677817</v>
       </c>
       <c r="F59">
-        <v>-0.06554553630108563</v>
+        <v>-0.02561038945128357</v>
       </c>
       <c r="G59">
-        <v>0.02856347229205966</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.009640022443352218</v>
+      </c>
+      <c r="H59">
+        <v>0.01745450878060366</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1619691223434484</v>
+        <v>-0.1751640438931067</v>
       </c>
       <c r="C60">
-        <v>-0.03948322098834294</v>
+        <v>0.03656591521174838</v>
       </c>
       <c r="D60">
-        <v>-0.06540261156692662</v>
+        <v>-0.02085146077302142</v>
       </c>
       <c r="E60">
-        <v>0.04831383150487146</v>
+        <v>-0.04702783085096569</v>
       </c>
       <c r="F60">
-        <v>-0.1713690026827741</v>
+        <v>0.03473111112438252</v>
       </c>
       <c r="G60">
-        <v>0.3057059475518281</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04078813090501603</v>
+      </c>
+      <c r="H60">
+        <v>0.397583960220371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02346291082098125</v>
+        <v>-0.02048447315873105</v>
       </c>
       <c r="C61">
-        <v>-0.007395223667166656</v>
+        <v>0.005887565605057214</v>
       </c>
       <c r="D61">
-        <v>-0.01311061569098086</v>
+        <v>-0.04236775491614111</v>
       </c>
       <c r="E61">
-        <v>-0.01987681631337005</v>
+        <v>0.005371836954497358</v>
       </c>
       <c r="F61">
-        <v>-0.03817203046468122</v>
+        <v>0.01662307635299212</v>
       </c>
       <c r="G61">
-        <v>-0.01923211748861915</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02592562623075991</v>
+      </c>
+      <c r="H61">
+        <v>0.05075778366007661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01594940439164311</v>
+        <v>-0.01191520300289844</v>
       </c>
       <c r="C63">
-        <v>-0.01193967442107176</v>
+        <v>-0.002617916120717176</v>
       </c>
       <c r="D63">
-        <v>-0.01470215761523408</v>
+        <v>-0.01531196479172391</v>
       </c>
       <c r="E63">
-        <v>-0.04187103009609805</v>
+        <v>0.005876681386981967</v>
       </c>
       <c r="F63">
-        <v>-0.01589579587861845</v>
+        <v>0.01459415226979829</v>
       </c>
       <c r="G63">
-        <v>-0.04431144021616119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01753486308312003</v>
+      </c>
+      <c r="H63">
+        <v>0.003379967781231345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03463039347427375</v>
+        <v>-0.03856244369263366</v>
       </c>
       <c r="C64">
-        <v>-0.004946736078409465</v>
+        <v>0.009090188351986869</v>
       </c>
       <c r="D64">
-        <v>0.01184886835167058</v>
+        <v>-0.04078128974276338</v>
       </c>
       <c r="E64">
-        <v>-0.05786588987189916</v>
+        <v>0.01109200282654513</v>
       </c>
       <c r="F64">
-        <v>-0.02008184435910353</v>
+        <v>0.004910077742101437</v>
       </c>
       <c r="G64">
-        <v>-0.06900884704791357</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.007805246480621111</v>
+      </c>
+      <c r="H64">
+        <v>0.03726623376936318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01648064005437687</v>
+        <v>-0.02785816642732292</v>
       </c>
       <c r="C65">
-        <v>-0.01292873688027567</v>
+        <v>-0.005134654310480022</v>
       </c>
       <c r="D65">
-        <v>-0.01781648811907268</v>
+        <v>-0.06025092548221574</v>
       </c>
       <c r="E65">
-        <v>-0.02261345437118762</v>
+        <v>0.01061028356291081</v>
       </c>
       <c r="F65">
-        <v>-0.01040212369467378</v>
+        <v>0.03294882089143864</v>
       </c>
       <c r="G65">
-        <v>0.002109612268195774</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.00343145038901614</v>
+      </c>
+      <c r="H65">
+        <v>0.06247698734106525</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04523881240109753</v>
+        <v>-0.02303627464830245</v>
       </c>
       <c r="C66">
-        <v>-0.03978614529728215</v>
+        <v>0.00474893352686416</v>
       </c>
       <c r="D66">
-        <v>-0.02756676184101441</v>
+        <v>-0.08825113542576256</v>
       </c>
       <c r="E66">
-        <v>-0.0339491375003998</v>
+        <v>-0.002866576731593788</v>
       </c>
       <c r="F66">
-        <v>-0.06246966580981923</v>
+        <v>0.03653002336371517</v>
       </c>
       <c r="G66">
-        <v>-0.02105516395370638</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03615856605355969</v>
+      </c>
+      <c r="H66">
+        <v>0.07344238877086258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01355589766711213</v>
+        <v>-0.04310318310442968</v>
       </c>
       <c r="C67">
-        <v>0.008114555236580783</v>
+        <v>0.01937757211451254</v>
       </c>
       <c r="D67">
-        <v>-0.01004189086362764</v>
+        <v>-0.002990975368972946</v>
       </c>
       <c r="E67">
-        <v>0.0376867271512193</v>
+        <v>-0.004313876779579869</v>
       </c>
       <c r="F67">
-        <v>-0.03043372135433626</v>
+        <v>0.01332275663565054</v>
       </c>
       <c r="G67">
-        <v>0.006509413693610028</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.004242903526978566</v>
+      </c>
+      <c r="H67">
+        <v>0.04044344375798051</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05991900842487505</v>
+        <v>-0.161968165702778</v>
       </c>
       <c r="C68">
-        <v>0.01981392874778154</v>
+        <v>0.01919788349842514</v>
       </c>
       <c r="D68">
-        <v>0.1336540535200423</v>
+        <v>0.2196396657095472</v>
       </c>
       <c r="E68">
-        <v>0.1415045804334921</v>
+        <v>-0.01990592336853522</v>
       </c>
       <c r="F68">
-        <v>-0.04826772052327748</v>
+        <v>-0.047320362010736</v>
       </c>
       <c r="G68">
-        <v>0.062895783744072</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01891694847923181</v>
+      </c>
+      <c r="H68">
+        <v>-0.03863749579508428</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07179667116515634</v>
+        <v>-0.05809685160802237</v>
       </c>
       <c r="C69">
-        <v>-0.03701645213345046</v>
+        <v>0.02817855480694703</v>
       </c>
       <c r="D69">
-        <v>-0.00427481163723856</v>
+        <v>-0.04095811708848872</v>
       </c>
       <c r="E69">
-        <v>-0.001107447861014304</v>
+        <v>-0.001251431941060618</v>
       </c>
       <c r="F69">
-        <v>-0.0187475923089309</v>
+        <v>0.03137364942164975</v>
       </c>
       <c r="G69">
-        <v>-0.08673352884470524</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01327984324245948</v>
+      </c>
+      <c r="H69">
+        <v>0.003836716554644108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06906018725987743</v>
+        <v>-0.150754104891716</v>
       </c>
       <c r="C71">
-        <v>0.03750408006220116</v>
+        <v>0.0260232470389802</v>
       </c>
       <c r="D71">
-        <v>0.1148187589792056</v>
+        <v>0.1952655157412151</v>
       </c>
       <c r="E71">
-        <v>0.1969486664905305</v>
+        <v>-0.02590924576131237</v>
       </c>
       <c r="F71">
-        <v>-0.06104962245311767</v>
+        <v>-0.05691520244128577</v>
       </c>
       <c r="G71">
-        <v>0.01700316931864062</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01837754600732685</v>
+      </c>
+      <c r="H71">
+        <v>-0.03054683404660343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1149830085923972</v>
+        <v>-0.08031750942385066</v>
       </c>
       <c r="C72">
-        <v>-0.08951045779344753</v>
+        <v>0.03867711003846309</v>
       </c>
       <c r="D72">
-        <v>0.003832698304368463</v>
+        <v>-0.07800916930608678</v>
       </c>
       <c r="E72">
-        <v>-0.02133354828456983</v>
+        <v>-0.008315367278523477</v>
       </c>
       <c r="F72">
-        <v>-0.1214619987428655</v>
+        <v>0.07874446406707186</v>
       </c>
       <c r="G72">
-        <v>0.07344561289352311</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.05686071252195214</v>
+      </c>
+      <c r="H72">
+        <v>0.1688925797577299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2435065584618134</v>
+        <v>-0.2339507302035614</v>
       </c>
       <c r="C73">
-        <v>-0.03209068336392497</v>
+        <v>0.04514622041715586</v>
       </c>
       <c r="D73">
-        <v>-0.06937856697603249</v>
+        <v>-0.06713077340419692</v>
       </c>
       <c r="E73">
-        <v>0.1454772148103146</v>
+        <v>-0.07829031852891362</v>
       </c>
       <c r="F73">
-        <v>-0.2904703671953096</v>
+        <v>0.02978645242574407</v>
       </c>
       <c r="G73">
-        <v>0.4496883077170988</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.05939825685829363</v>
+      </c>
+      <c r="H73">
+        <v>0.5106089939175253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1411099714369996</v>
+        <v>-0.1157192967424645</v>
       </c>
       <c r="C74">
-        <v>-0.04432540251411442</v>
+        <v>0.05123361844329688</v>
       </c>
       <c r="D74">
-        <v>0.01846727857855211</v>
+        <v>-0.105213308084</v>
       </c>
       <c r="E74">
-        <v>-0.03791303030580026</v>
+        <v>0.009463264601077208</v>
       </c>
       <c r="F74">
-        <v>0.07233137842529551</v>
+        <v>0.06174012007822549</v>
       </c>
       <c r="G74">
-        <v>0.02700908119446205</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05736169818173338</v>
+      </c>
+      <c r="H74">
+        <v>-0.0309230368174713</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2307609101946714</v>
+        <v>-0.2246312020470119</v>
       </c>
       <c r="C75">
-        <v>-0.1557679997469177</v>
+        <v>0.101094640237855</v>
       </c>
       <c r="D75">
-        <v>0.03053487514331315</v>
+        <v>-0.1682739506760232</v>
       </c>
       <c r="E75">
-        <v>-0.06562706064958553</v>
+        <v>-0.003384139145432655</v>
       </c>
       <c r="F75">
-        <v>0.1275580835088342</v>
+        <v>0.1494265330696265</v>
       </c>
       <c r="G75">
-        <v>-0.007689975824778055</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1248657447796732</v>
+      </c>
+      <c r="H75">
+        <v>-0.1168887454966486</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2820219810973661</v>
+        <v>-0.1991437197195069</v>
       </c>
       <c r="C76">
-        <v>-0.1461111824589535</v>
+        <v>0.09450161315182386</v>
       </c>
       <c r="D76">
-        <v>0.1051793629007961</v>
+        <v>-0.1600144408917049</v>
       </c>
       <c r="E76">
-        <v>-0.08477746874055044</v>
+        <v>0.04793984695395891</v>
       </c>
       <c r="F76">
-        <v>0.1623489148743222</v>
+        <v>0.1442422600647223</v>
       </c>
       <c r="G76">
-        <v>-0.01160670362161648</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1220892625229641</v>
+      </c>
+      <c r="H76">
+        <v>-0.1254777368343704</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1391351292666393</v>
+        <v>-0.06776847074533963</v>
       </c>
       <c r="C77">
-        <v>0.02875140052136005</v>
+        <v>0.007287563894264026</v>
       </c>
       <c r="D77">
-        <v>-0.08195877216542283</v>
+        <v>-0.06334848185860974</v>
       </c>
       <c r="E77">
-        <v>-0.05926427207534926</v>
+        <v>-0.0158915866758402</v>
       </c>
       <c r="F77">
-        <v>-0.1823570123745028</v>
+        <v>-0.03640050773694691</v>
       </c>
       <c r="G77">
-        <v>-0.1822724463425016</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1026256058342406</v>
+      </c>
+      <c r="H77">
+        <v>0.001808448645153702</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06417180850391914</v>
+        <v>-0.0383475680699328</v>
       </c>
       <c r="C78">
-        <v>-0.02473020882974469</v>
+        <v>0.009703229301114434</v>
       </c>
       <c r="D78">
-        <v>-0.03064517450759896</v>
+        <v>-0.04926858496988343</v>
       </c>
       <c r="E78">
-        <v>-0.09007308462145724</v>
+        <v>0.008054767331148212</v>
       </c>
       <c r="F78">
-        <v>-0.06831457483880476</v>
+        <v>0.01980682297939709</v>
       </c>
       <c r="G78">
-        <v>-0.03492006778159604</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05845278283665829</v>
+      </c>
+      <c r="H78">
+        <v>0.069900647142445</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.134912310628766</v>
+        <v>-0.1389172443314664</v>
       </c>
       <c r="C80">
-        <v>0.5848184236543839</v>
+        <v>0.03684395022197847</v>
       </c>
       <c r="D80">
-        <v>0.5650200362252574</v>
+        <v>-0.04675284356569643</v>
       </c>
       <c r="E80">
-        <v>-0.5238211363167651</v>
+        <v>0.9380821417695632</v>
       </c>
       <c r="F80">
-        <v>-0.07199171417986806</v>
+        <v>-0.2462433551160094</v>
       </c>
       <c r="G80">
-        <v>0.1108792531854969</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.118970219069988</v>
+      </c>
+      <c r="H80">
+        <v>0.008537627171247012</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1740433110137169</v>
+        <v>-0.1472291498356966</v>
       </c>
       <c r="C81">
-        <v>-0.1068037111355682</v>
+        <v>0.06525929160784025</v>
       </c>
       <c r="D81">
-        <v>0.05280465967973966</v>
+        <v>-0.1025699860328262</v>
       </c>
       <c r="E81">
-        <v>-0.04543724663108707</v>
+        <v>0.01747914822746405</v>
       </c>
       <c r="F81">
-        <v>0.1316273379071879</v>
+        <v>0.08971454779837838</v>
       </c>
       <c r="G81">
-        <v>0.02120471837268474</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.08150673786210808</v>
+      </c>
+      <c r="H81">
+        <v>-0.0817612222410742</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0496640863211368</v>
+        <v>-0.03249395231559496</v>
       </c>
       <c r="C83">
-        <v>0.0007588269092128532</v>
+        <v>0.005597617485473503</v>
       </c>
       <c r="D83">
-        <v>-0.03733857102167834</v>
+        <v>-0.0212039545185478</v>
       </c>
       <c r="E83">
-        <v>-0.01229960284458279</v>
+        <v>-0.005263403586756086</v>
       </c>
       <c r="F83">
-        <v>-0.05639630153152057</v>
+        <v>0.001582844077240821</v>
       </c>
       <c r="G83">
-        <v>-0.0450539768865433</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04140452464514393</v>
+      </c>
+      <c r="H83">
+        <v>0.04141709019525196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2532127972271001</v>
+        <v>-0.2138994431990555</v>
       </c>
       <c r="C85">
-        <v>-0.1402154165758288</v>
+        <v>0.0846758497618849</v>
       </c>
       <c r="D85">
-        <v>0.05079684127200575</v>
+        <v>-0.1695571252982967</v>
       </c>
       <c r="E85">
-        <v>-0.07449692562222415</v>
+        <v>0.003212219699110128</v>
       </c>
       <c r="F85">
-        <v>0.1270584532050518</v>
+        <v>0.1362152315828593</v>
       </c>
       <c r="G85">
-        <v>-0.05050467861829212</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1371390983655078</v>
+      </c>
+      <c r="H85">
+        <v>-0.08652769889816021</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.003266184675521759</v>
+        <v>-0.02034616017870024</v>
       </c>
       <c r="C86">
-        <v>0.005505363370330874</v>
+        <v>-0.0009970591219408136</v>
       </c>
       <c r="D86">
-        <v>-0.0220567924629877</v>
+        <v>-0.005275120908342238</v>
       </c>
       <c r="E86">
-        <v>-0.05068518940233628</v>
+        <v>-0.00921971715688257</v>
       </c>
       <c r="F86">
-        <v>-0.06069450193242771</v>
+        <v>-0.02045890559498255</v>
       </c>
       <c r="G86">
-        <v>-0.01835108388193534</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.06222491226503269</v>
+      </c>
+      <c r="H86">
+        <v>0.07513642759560991</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.0370526124797745</v>
+        <v>-0.02659886544409074</v>
       </c>
       <c r="C87">
-        <v>0.008851879169790595</v>
+        <v>0.001759273676005467</v>
       </c>
       <c r="D87">
-        <v>-0.002321914983635022</v>
+        <v>-0.03338203606911767</v>
       </c>
       <c r="E87">
-        <v>-0.03771840688971662</v>
+        <v>0.009118906935482531</v>
       </c>
       <c r="F87">
-        <v>-0.1065909194943723</v>
+        <v>0.005219528729993276</v>
       </c>
       <c r="G87">
-        <v>-0.03775790032120118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.07678692176988773</v>
+      </c>
+      <c r="H87">
+        <v>0.07478942555402128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01033696795543671</v>
+        <v>-0.03508630674625637</v>
       </c>
       <c r="C88">
-        <v>-0.002696482079717674</v>
+        <v>-0.01187249524765276</v>
       </c>
       <c r="D88">
-        <v>0.0175210461169029</v>
+        <v>-0.004659700345484302</v>
       </c>
       <c r="E88">
-        <v>0.00336747460277652</v>
+        <v>0.008584699124582845</v>
       </c>
       <c r="F88">
-        <v>-0.007232828359243521</v>
+        <v>0.006933397565542041</v>
       </c>
       <c r="G88">
-        <v>-0.05241654973557811</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.003109568360103294</v>
+      </c>
+      <c r="H88">
+        <v>0.01565553397630474</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08603169928024618</v>
+        <v>-0.2563217727148252</v>
       </c>
       <c r="C89">
-        <v>0.05186636343800947</v>
+        <v>0.04157168856105899</v>
       </c>
       <c r="D89">
-        <v>0.1628351992149915</v>
+        <v>0.3451640585758873</v>
       </c>
       <c r="E89">
-        <v>0.2627261485064186</v>
+        <v>-0.04155640071709443</v>
       </c>
       <c r="F89">
-        <v>-0.1149924509902413</v>
+        <v>-0.05825048060819687</v>
       </c>
       <c r="G89">
-        <v>-0.01535216329487952</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.02391928977792645</v>
+      </c>
+      <c r="H89">
+        <v>-0.01231354844180661</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07452925087166676</v>
+        <v>-0.2060815280317277</v>
       </c>
       <c r="C90">
-        <v>0.0783913038820907</v>
+        <v>0.0339463401946786</v>
       </c>
       <c r="D90">
-        <v>0.2141335363457489</v>
+        <v>0.3036859320658483</v>
       </c>
       <c r="E90">
-        <v>0.265882620612602</v>
+        <v>-0.03151182334534872</v>
       </c>
       <c r="F90">
-        <v>-0.06733273862866507</v>
+        <v>-0.07444689520903576</v>
       </c>
       <c r="G90">
-        <v>-0.01689487379171461</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.03220777725598933</v>
+      </c>
+      <c r="H90">
+        <v>-0.06923702013746455</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3139905053812473</v>
+        <v>-0.2311959491370053</v>
       </c>
       <c r="C91">
-        <v>-0.1542504865653011</v>
+        <v>0.1020034387476751</v>
       </c>
       <c r="D91">
-        <v>0.04655864046742782</v>
+        <v>-0.1594047517066156</v>
       </c>
       <c r="E91">
-        <v>-0.04986964425039038</v>
+        <v>0.001768928520443043</v>
       </c>
       <c r="F91">
-        <v>0.2327186978858427</v>
+        <v>0.142252967768258</v>
       </c>
       <c r="G91">
-        <v>0.03169985392121662</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1467913802261897</v>
+      </c>
+      <c r="H91">
+        <v>-0.1629150310013538</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1693091408914714</v>
+        <v>-0.2515063153127032</v>
       </c>
       <c r="C92">
-        <v>0.02454707051244675</v>
+        <v>0.09640655172240337</v>
       </c>
       <c r="D92">
-        <v>0.3059420724480896</v>
+        <v>0.23190422807558</v>
       </c>
       <c r="E92">
-        <v>0.3622827795003783</v>
+        <v>-0.0176881766075254</v>
       </c>
       <c r="F92">
-        <v>0.04910366624162942</v>
+        <v>-0.02763725597555453</v>
       </c>
       <c r="G92">
-        <v>-0.5237774822049578</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.005593424809204539</v>
+      </c>
+      <c r="H92">
+        <v>-0.1472840405017521</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.07761501755730393</v>
+        <v>-0.2305320300921163</v>
       </c>
       <c r="C93">
-        <v>0.08326602382401166</v>
+        <v>0.04598256620944641</v>
       </c>
       <c r="D93">
-        <v>0.2409334840854969</v>
+        <v>0.3273359711580588</v>
       </c>
       <c r="E93">
-        <v>0.3848695566634721</v>
+        <v>-0.05680661164388837</v>
       </c>
       <c r="F93">
-        <v>-0.03229296647456185</v>
+        <v>-0.0843466632105062</v>
       </c>
       <c r="G93">
-        <v>0.06179777927543983</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.02992195536862865</v>
+      </c>
+      <c r="H93">
+        <v>-0.0195142155972068</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3039057894145601</v>
+        <v>-0.2549017859513785</v>
       </c>
       <c r="C94">
-        <v>-0.2219301395419017</v>
+        <v>0.09293646321796227</v>
       </c>
       <c r="D94">
-        <v>0.09226573855719446</v>
+        <v>-0.1594703547602279</v>
       </c>
       <c r="E94">
-        <v>-0.06014244705319601</v>
+        <v>-0.006558737749838571</v>
       </c>
       <c r="F94">
-        <v>0.2022614213486912</v>
+        <v>0.1926002033493503</v>
       </c>
       <c r="G94">
-        <v>0.07963792516316164</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1351804322053309</v>
+      </c>
+      <c r="H94">
+        <v>-0.1815265893972618</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06665651959108408</v>
+        <v>-0.05146272015083632</v>
       </c>
       <c r="C95">
-        <v>-0.02865432910974784</v>
+        <v>0.02786664874114518</v>
       </c>
       <c r="D95">
-        <v>-0.09451565570390333</v>
+        <v>-0.08472133727120912</v>
       </c>
       <c r="E95">
-        <v>-0.06202649452872256</v>
+        <v>-0.08044844205518883</v>
       </c>
       <c r="F95">
-        <v>-0.004825335483651589</v>
+        <v>0.003825701189519195</v>
       </c>
       <c r="G95">
-        <v>-0.1631203040743791</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.02971168657616523</v>
+      </c>
+      <c r="H95">
+        <v>0.04583617561492653</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1821885805722813</v>
+        <v>-0.1785430629022232</v>
       </c>
       <c r="C98">
-        <v>0.00952410531460489</v>
+        <v>0.06712996544320037</v>
       </c>
       <c r="D98">
-        <v>-0.03459581359854694</v>
+        <v>-0.04456968532355931</v>
       </c>
       <c r="E98">
-        <v>0.09121863825959957</v>
+        <v>-0.04489816164734772</v>
       </c>
       <c r="F98">
-        <v>-0.1577963676521847</v>
+        <v>0.00261408786329455</v>
       </c>
       <c r="G98">
-        <v>0.3599894094167856</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07915756616026018</v>
+      </c>
+      <c r="H98">
+        <v>0.3783285649549998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.007227456046289915</v>
+        <v>-0.01488333927489706</v>
       </c>
       <c r="C101">
-        <v>-0.02488620033502032</v>
+        <v>-0.0007127113799172332</v>
       </c>
       <c r="D101">
-        <v>-0.0209649864342924</v>
+        <v>-0.007825500024980848</v>
       </c>
       <c r="E101">
-        <v>-0.1014537227928182</v>
+        <v>0.005786712229757858</v>
       </c>
       <c r="F101">
-        <v>-0.1515988467178739</v>
+        <v>0.01716262528460802</v>
       </c>
       <c r="G101">
-        <v>-0.170487327088217</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1094098152496588</v>
+      </c>
+      <c r="H101">
+        <v>-0.03038172218221216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1100254647941748</v>
+        <v>-0.1029551734176415</v>
       </c>
       <c r="C102">
-        <v>-0.07132524217136442</v>
+        <v>0.03350956911065869</v>
       </c>
       <c r="D102">
-        <v>0.001532545785207688</v>
+        <v>-0.08476970899918657</v>
       </c>
       <c r="E102">
-        <v>-0.05297253321971811</v>
+        <v>0.00476911299944785</v>
       </c>
       <c r="F102">
-        <v>0.1149467613730744</v>
+        <v>0.07056505591781306</v>
       </c>
       <c r="G102">
-        <v>-0.00725752055346292</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.0758755276361162</v>
+      </c>
+      <c r="H102">
+        <v>-0.06870144879913097</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02863943584443213</v>
+        <v>-0.01936221049169861</v>
       </c>
       <c r="C103">
-        <v>-0.01690270730387549</v>
+        <v>0.007334629125738754</v>
       </c>
       <c r="D103">
-        <v>0.006133355440511918</v>
+        <v>-0.0174259105316187</v>
       </c>
       <c r="E103">
-        <v>-0.0122653609082653</v>
+        <v>0.01131696473367281</v>
       </c>
       <c r="F103">
-        <v>0.006079872936989939</v>
+        <v>0.01382118273332478</v>
       </c>
       <c r="G103">
-        <v>-0.03652560007576148</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.000402990430573263</v>
+      </c>
+      <c r="H103">
+        <v>-0.007868807154970722</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2650755249881778</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9472179213207272</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.0124181775363187</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03533015936152202</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1446544015003932</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.01276250330883713</v>
+      </c>
+      <c r="H104">
+        <v>-0.03800780507443299</v>
       </c>
     </row>
   </sheetData>
